--- a/Sprint_Backlog_Template.xlsx
+++ b/Sprint_Backlog_Template.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -732,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -786,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>

--- a/Sprint_Backlog_Template.xlsx
+++ b/Sprint_Backlog_Template.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>

--- a/Sprint_Backlog_Template.xlsx
+++ b/Sprint_Backlog_Template.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -579,7 +579,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -766,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
